--- a/Keyspace in All Modes.xlsx
+++ b/Keyspace in All Modes.xlsx
@@ -9,13 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="23480" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="21960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Normal" sheetId="1" r:id="rId1"/>
-    <sheet name="Visual" sheetId="3" r:id="rId2"/>
-    <sheet name="Insert" sheetId="4" r:id="rId3"/>
-    <sheet name="Notes" sheetId="2" r:id="rId4"/>
+    <sheet name="Notes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -1584,9 +1582,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2047,34 +2045,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
